--- a/simulated_data_edited.xlsx
+++ b/simulated_data_edited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,9 +511,11 @@
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -541,9 +543,11 @@
         <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -571,9 +575,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -601,9 +607,11 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -631,9 +639,11 @@
         <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -661,9 +671,11 @@
         <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -691,9 +703,11 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -721,9 +735,11 @@
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -751,9 +767,11 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -781,9 +799,11 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -811,9 +831,11 @@
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -841,9 +863,11 @@
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -871,9 +895,11 @@
         <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -901,9 +927,11 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -931,9 +959,11 @@
         <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -961,9 +991,11 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -991,9 +1023,11 @@
         <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1021,9 +1055,11 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1051,9 +1087,11 @@
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1081,9 +1119,11 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1111,9 +1151,11 @@
         <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1141,9 +1183,11 @@
         <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1171,9 +1215,11 @@
         <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1201,9 +1247,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1231,9 +1279,11 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1261,9 +1311,11 @@
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1291,9 +1343,11 @@
         <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1321,9 +1375,11 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1351,9 +1407,11 @@
         <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1381,9 +1439,11 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1411,9 +1471,11 @@
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1441,9 +1503,11 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1471,9 +1535,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1501,9 +1567,11 @@
         <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1531,9 +1599,11 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1561,9 +1631,11 @@
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1591,9 +1663,11 @@
         <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1621,9 +1695,11 @@
         <v>17</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1651,9 +1727,11 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1681,9 +1759,11 @@
         <v>13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1711,9 +1791,11 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1741,9 +1823,11 @@
         <v>12</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1771,9 +1855,11 @@
         <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1801,9 +1887,11 @@
         <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1831,9 +1919,11 @@
         <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1861,9 +1951,11 @@
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1891,9 +1983,11 @@
         <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1921,9 +2015,11 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1951,9 +2047,11 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1981,9 +2079,11 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2011,9 +2111,11 @@
         <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2041,9 +2143,11 @@
         <v>15</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2071,9 +2175,11 @@
         <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2101,9 +2207,11 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2131,9 +2239,11 @@
         <v>19</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2161,9 +2271,11 @@
         <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2191,9 +2303,11 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2221,9 +2335,11 @@
         <v>18</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2251,9 +2367,11 @@
         <v>15</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2281,9 +2399,11 @@
         <v>13</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2311,9 +2431,11 @@
         <v>9</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2341,9 +2463,11 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2371,9 +2495,11 @@
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2401,9 +2527,11 @@
         <v>10</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2431,9 +2559,11 @@
         <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2461,9 +2591,11 @@
         <v>12</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2491,9 +2623,11 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2521,9 +2655,11 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2551,9 +2687,11 @@
         <v>13</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2581,9 +2719,11 @@
         <v>12</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2611,9 +2751,11 @@
         <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2641,9 +2783,11 @@
         <v>8</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2671,9 +2815,11 @@
         <v>9</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2701,9 +2847,11 @@
         <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2731,9 +2879,11 @@
         <v>8</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2761,9 +2911,11 @@
         <v>13</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2791,9 +2943,11 @@
         <v>12</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2821,9 +2975,11 @@
         <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2851,9 +3007,11 @@
         <v>8</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2881,9 +3039,11 @@
         <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2911,9 +3071,11 @@
         <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2941,9 +3103,11 @@
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2971,9 +3135,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3001,9 +3167,11 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3031,9 +3199,11 @@
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3061,9 +3231,11 @@
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3091,9 +3263,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3121,9 +3295,11 @@
         <v>12</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3151,9 +3327,11 @@
         <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3181,9 +3359,11 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3211,9 +3391,11 @@
         <v>9</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3241,9 +3423,11 @@
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3271,9 +3455,11 @@
         <v>13</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3301,9 +3487,11 @@
         <v>11</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3331,9 +3519,11 @@
         <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3361,9 +3551,11 @@
         <v>11</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3391,9 +3583,11 @@
         <v>9</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3421,9 +3615,11 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3451,9 +3647,11 @@
         <v>16</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3481,9 +3679,11 @@
         <v>14</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3511,9 +3711,11 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3541,9 +3743,11 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3571,9 +3775,11 @@
         <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3601,9 +3807,11 @@
         <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3631,9 +3839,11 @@
         <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3661,9 +3871,11 @@
         <v>12</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3691,9 +3903,11 @@
         <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3721,9 +3935,11 @@
         <v>12</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3751,9 +3967,11 @@
         <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3781,9 +3999,11 @@
         <v>17</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3811,9 +4031,11 @@
         <v>14</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3841,9 +4063,11 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3871,9 +4095,11 @@
         <v>15</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3901,9 +4127,11 @@
         <v>11</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3931,9 +4159,11 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3961,9 +4191,11 @@
         <v>13</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3991,9 +4223,11 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4021,9 +4255,11 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4051,9 +4287,11 @@
         <v>8</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4081,9 +4319,11 @@
         <v>12</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4111,9 +4351,11 @@
         <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4141,9 +4383,11 @@
         <v>9</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4171,9 +4415,11 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4201,9 +4447,11 @@
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4231,9 +4479,11 @@
         <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4261,9 +4511,11 @@
         <v>8</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4291,9 +4543,11 @@
         <v>15</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4321,9 +4575,11 @@
         <v>15</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4351,9 +4607,11 @@
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4381,9 +4639,11 @@
         <v>7</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4411,9 +4671,11 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4441,9 +4703,11 @@
         <v>17</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4471,9 +4735,11 @@
         <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4501,9 +4767,11 @@
         <v>5</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4531,9 +4799,11 @@
         <v>13</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4561,9 +4831,11 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4591,9 +4863,11 @@
         <v>15</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4621,9 +4895,11 @@
         <v>13</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4651,9 +4927,11 @@
         <v>15</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4681,9 +4959,11 @@
         <v>12</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4711,9 +4991,11 @@
         <v>14</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4741,9 +5023,11 @@
         <v>9</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4771,9 +5055,11 @@
         <v>12</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4801,9 +5087,11 @@
         <v>14</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4831,9 +5119,11 @@
         <v>16</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4861,9 +5151,11 @@
         <v>9</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4891,9 +5183,11 @@
         <v>5</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4921,9 +5215,11 @@
         <v>9</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4951,9 +5247,11 @@
         <v>11</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4981,9 +5279,11 @@
         <v>10</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5011,9 +5311,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5041,9 +5343,11 @@
         <v>16</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5071,9 +5375,11 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5101,9 +5407,11 @@
         <v>11</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5131,9 +5439,11 @@
         <v>17</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5161,9 +5471,11 @@
         <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5191,9 +5503,11 @@
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5221,9 +5535,11 @@
         <v>5</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5251,9 +5567,11 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5281,9 +5599,11 @@
         <v>7</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5311,9 +5631,11 @@
         <v>17</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5341,9 +5663,11 @@
         <v>13</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5371,9 +5695,11 @@
         <v>6</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5401,9 +5727,11 @@
         <v>16</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5431,9 +5759,11 @@
         <v>7</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5461,9 +5791,11 @@
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5491,9 +5823,11 @@
         <v>3</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5521,9 +5855,11 @@
         <v>13</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5551,9 +5887,11 @@
         <v>9</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5581,9 +5919,11 @@
         <v>10</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5611,9 +5951,11 @@
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5641,9 +5983,11 @@
         <v>11</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5671,9 +6015,11 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5701,9 +6047,11 @@
         <v>10</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5731,9 +6079,11 @@
         <v>18</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5761,9 +6111,11 @@
         <v>5</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5791,9 +6143,11 @@
         <v>8</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5821,9 +6175,11 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5851,9 +6207,11 @@
         <v>14</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5881,9 +6239,11 @@
         <v>12</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5911,9 +6271,11 @@
         <v>13</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5941,9 +6303,11 @@
         <v>5</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5971,9 +6335,11 @@
         <v>5</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6001,9 +6367,11 @@
         <v>18</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6031,9 +6399,11 @@
         <v>10</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6061,9 +6431,11 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6091,9 +6463,11 @@
         <v>11</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6121,9 +6495,11 @@
         <v>12</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6151,9 +6527,11 @@
         <v>6</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6181,9 +6559,11 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6211,9 +6591,11 @@
         <v>8</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6241,9 +6623,11 @@
         <v>15</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6271,9 +6655,11 @@
         <v>15</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6301,9 +6687,11 @@
         <v>14</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6331,9 +6719,11 @@
         <v>5</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6361,9 +6751,11 @@
         <v>14</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6391,9 +6783,11 @@
         <v>7</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6421,9 +6815,11 @@
         <v>9</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6451,9 +6847,11 @@
         <v>13</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6481,9 +6879,11 @@
         <v>17</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6511,9 +6911,11 @@
         <v>16</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6541,9 +6943,11 @@
         <v>17</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6571,9 +6975,11 @@
         <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6601,9 +7007,11 @@
         <v>3</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6631,9 +7039,11 @@
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6661,9 +7071,11 @@
         <v>9</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6691,9 +7103,11 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6721,9 +7135,11 @@
         <v>12</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6751,9 +7167,11 @@
         <v>14</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6781,9 +7199,11 @@
         <v>9</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6811,9 +7231,11 @@
         <v>10</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6841,9 +7263,11 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6871,9 +7295,11 @@
         <v>18</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6901,9 +7327,11 @@
         <v>10</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6931,9 +7359,11 @@
         <v>9</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6961,9 +7391,11 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6991,9 +7423,11 @@
         <v>11</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7021,9 +7455,11 @@
         <v>7</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7051,9 +7487,11 @@
         <v>14</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7081,9 +7519,11 @@
         <v>11</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7111,9 +7551,11 @@
         <v>8</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7141,9 +7583,11 @@
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7171,9 +7615,11 @@
         <v>12</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7201,9 +7647,11 @@
         <v>7</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7231,9 +7679,11 @@
         <v>18</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7261,9 +7711,11 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7291,9 +7743,11 @@
         <v>14</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7321,9 +7775,11 @@
         <v>7</v>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7351,9 +7807,11 @@
         <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7381,9 +7839,11 @@
         <v>10</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7411,9 +7871,11 @@
         <v>17</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7441,9 +7903,11 @@
         <v>3</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7471,9 +7935,11 @@
         <v>6</v>
       </c>
       <c r="I234" t="n">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7501,9 +7967,11 @@
         <v>5</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7531,9 +7999,11 @@
         <v>1</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7561,9 +8031,11 @@
         <v>15</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7591,9 +8063,11 @@
         <v>16</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7621,9 +8095,11 @@
         <v>13</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7651,9 +8127,11 @@
         <v>7</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7681,9 +8159,11 @@
         <v>14</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7711,9 +8191,11 @@
         <v>11</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7741,9 +8223,11 @@
         <v>5.3</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7771,9 +8255,1835 @@
         <v>1.5</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2</v>
+      </c>
+      <c r="H245" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>3</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2</v>
+      </c>
+      <c r="H246" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>6</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>9</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H248" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>4</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H249" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H250" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H251" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" t="n">
+        <v>4</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="n">
+        <v>3</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>10</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H255" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="n">
+        <v>3</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H257" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>3</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H260" t="n">
+        <v>12</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H261" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3</v>
+      </c>
+      <c r="H262" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>3</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>3</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>6</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>10</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H266" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>5</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>9</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H268" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2</v>
+      </c>
+      <c r="H269" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H270" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>4</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>5</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H272" t="n">
+        <v>8</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>7</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H273" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>7</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H274" t="n">
+        <v>17</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>4</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H275" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>8</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H276" t="n">
+        <v>16</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H277" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H278" t="n">
+        <v>8</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>6</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H279" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>7</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>7</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H281" t="n">
+        <v>13</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>8</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H282" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>6</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H283" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>8</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H284" t="n">
+        <v>12</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H286" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>7</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H287" t="n">
+        <v>17</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>4</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H288" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>6</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H289" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>4</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H290" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>5</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
+      <c r="H291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>5</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>4</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3</v>
+      </c>
+      <c r="G293" t="n">
+        <v>4</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>5</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3</v>
+      </c>
+      <c r="G294" t="n">
+        <v>3</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>6</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H295" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>8</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H296" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H297" t="n">
+        <v>13</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H298" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>7</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3</v>
+      </c>
+      <c r="G299" t="n">
+        <v>3</v>
+      </c>
+      <c r="H299" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>4</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H300" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
